--- a/ExperimentSummaryFIles/Form 2_Sequencing Samples.xlsx
+++ b/ExperimentSummaryFIles/Form 2_Sequencing Samples.xlsx
@@ -1073,7 +1073,7 @@
     </filterColumn>
     <filterColumn colId="7">
       <customFilters and="true">
-        <customFilter operator="equal" val="76638-v5_mus-fat_musi"/>
+        <customFilter operator="equal" val="P101521"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
@@ -1119,11 +1119,11 @@
   <dimension ref="A1:AI83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E88" activeCellId="0" sqref="E88"/>
+      <selection pane="bottomRight" activeCell="N59" activeCellId="0" sqref="N59:N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6211,7 +6211,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>58</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>59</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>60</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>61</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>62</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>63</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>64</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>65</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>66</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>67</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>68</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>69</v>
       </c>

--- a/ExperimentSummaryFIles/Form 2_Sequencing Samples.xlsx
+++ b/ExperimentSummaryFIles/Form 2_Sequencing Samples.xlsx
@@ -927,8 +927,8 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="0%"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="\ * #,##0.00\ ;\ * \(#,##0.00\);\ * \-#\ ;\ @\ "/>
+    <numFmt numFmtId="168" formatCode="\ * #,##0\ ;\ * \(#,##0\);\ * \-#\ ;\ @\ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -936,7 +936,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -957,7 +956,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1073,7 +1071,7 @@
     </filterColumn>
     <filterColumn colId="7">
       <customFilters and="true">
-        <customFilter operator="equal" val="P101521"/>
+        <customFilter operator="equal" val="76638-v5_mus-fat_musi"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
@@ -1119,14 +1117,14 @@
   <dimension ref="A1:AI83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N59" activeCellId="0" sqref="N59:N60"/>
+      <selection pane="bottomRight" activeCell="P66" activeCellId="0" sqref="P66:P70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.89"/>
@@ -1254,7 +1252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -1283,7 +1281,7 @@
         <v>4000</v>
       </c>
       <c r="J2" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G2*SequencingForm!$I2</f>
         <v>40000000</v>
       </c>
       <c r="K2" s="7" t="n">
@@ -1339,7 +1337,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -1368,7 +1366,7 @@
         <v>4000</v>
       </c>
       <c r="J3" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G3*SequencingForm!$I3</f>
         <v>40000000</v>
       </c>
       <c r="K3" s="7" t="n">
@@ -1424,7 +1422,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
@@ -1453,7 +1451,7 @@
         <v>4000</v>
       </c>
       <c r="J4" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G4*SequencingForm!$I4</f>
         <v>40000000</v>
       </c>
       <c r="K4" s="7" t="n">
@@ -1509,7 +1507,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
@@ -1538,7 +1536,7 @@
         <v>4000</v>
       </c>
       <c r="J5" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G5*SequencingForm!$I5</f>
         <v>40000000</v>
       </c>
       <c r="K5" s="7" t="n">
@@ -1594,7 +1592,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
@@ -1623,7 +1621,7 @@
         <v>4000</v>
       </c>
       <c r="J6" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G6*SequencingForm!$I6</f>
         <v>20000000</v>
       </c>
       <c r="K6" s="7" t="n">
@@ -1679,7 +1677,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
@@ -1708,7 +1706,7 @@
         <v>3000</v>
       </c>
       <c r="J7" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G7*SequencingForm!$I7</f>
         <v>30000000</v>
       </c>
       <c r="K7" s="7" t="n">
@@ -1767,7 +1765,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
@@ -1796,7 +1794,7 @@
         <v>3000</v>
       </c>
       <c r="J8" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G8*SequencingForm!$I8</f>
         <v>30000000</v>
       </c>
       <c r="K8" s="7" t="n">
@@ -1855,7 +1853,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
@@ -1884,7 +1882,7 @@
         <v>3000</v>
       </c>
       <c r="J9" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G9*SequencingForm!$I9</f>
         <v>30000000</v>
       </c>
       <c r="K9" s="7" t="n">
@@ -1943,7 +1941,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
@@ -1972,7 +1970,7 @@
         <v>3000</v>
       </c>
       <c r="J10" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G10*SequencingForm!$I10</f>
         <v>30000000</v>
       </c>
       <c r="K10" s="7" t="n">
@@ -2031,7 +2029,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
@@ -2060,7 +2058,7 @@
         <v>3000</v>
       </c>
       <c r="J11" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G11*SequencingForm!$I11</f>
         <v>30000000</v>
       </c>
       <c r="K11" s="7" t="n">
@@ -2119,7 +2117,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
@@ -2148,7 +2146,7 @@
         <v>3000</v>
       </c>
       <c r="J12" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G12*SequencingForm!$I12</f>
         <v>30000000</v>
       </c>
       <c r="K12" s="7" t="n">
@@ -2207,7 +2205,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
@@ -2233,7 +2231,7 @@
         <v>50000</v>
       </c>
       <c r="J13" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G13*SequencingForm!$I13</f>
         <v>500000000</v>
       </c>
       <c r="K13" s="7" t="n">
@@ -2287,7 +2285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
@@ -2313,7 +2311,7 @@
         <v>50000</v>
       </c>
       <c r="J14" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G14*SequencingForm!$I14</f>
         <v>500000000</v>
       </c>
       <c r="K14" s="7" t="n">
@@ -2367,7 +2365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
@@ -2393,7 +2391,7 @@
         <v>50000</v>
       </c>
       <c r="J15" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G15*SequencingForm!$I15</f>
         <v>500000000</v>
       </c>
       <c r="K15" s="7" t="n">
@@ -2447,7 +2445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
@@ -2473,7 +2471,7 @@
         <v>50000</v>
       </c>
       <c r="J16" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G16*SequencingForm!$I16</f>
         <v>500000000</v>
       </c>
       <c r="K16" s="7" t="n">
@@ -2527,7 +2525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
@@ -2553,7 +2551,7 @@
         <v>50001</v>
       </c>
       <c r="J17" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G17*SequencingForm!$I17</f>
         <v>250005000</v>
       </c>
       <c r="K17" s="7" t="n">
@@ -2607,7 +2605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
@@ -2633,7 +2631,7 @@
         <v>100000</v>
       </c>
       <c r="J18" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G18*SequencingForm!$I18</f>
         <v>1000000000</v>
       </c>
       <c r="K18" s="7" t="n">
@@ -2687,7 +2685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
@@ -2713,7 +2711,7 @@
         <v>50000</v>
       </c>
       <c r="J19" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G19*SequencingForm!$I19</f>
         <v>500000000</v>
       </c>
       <c r="K19" s="7" t="n">
@@ -2767,7 +2765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
@@ -2793,7 +2791,7 @@
         <v>115000</v>
       </c>
       <c r="J20" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G20*SequencingForm!$I20</f>
         <v>1150000000</v>
       </c>
       <c r="K20" s="7" t="n">
@@ -2847,7 +2845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
@@ -2876,7 +2874,7 @@
         <v>50000</v>
       </c>
       <c r="J21" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G21*SequencingForm!$I21</f>
         <v>500000000</v>
       </c>
       <c r="K21" s="7" t="n">
@@ -2935,7 +2933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
@@ -2964,7 +2962,7 @@
         <v>50000</v>
       </c>
       <c r="J22" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G22*SequencingForm!$I22</f>
         <v>500000000</v>
       </c>
       <c r="K22" s="7" t="n">
@@ -3023,7 +3021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
@@ -3052,7 +3050,7 @@
         <v>50000</v>
       </c>
       <c r="J23" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G23*SequencingForm!$I23</f>
         <v>500000000</v>
       </c>
       <c r="K23" s="7" t="n">
@@ -3111,7 +3109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
@@ -3140,7 +3138,7 @@
         <v>50000</v>
       </c>
       <c r="J24" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G24*SequencingForm!$I24</f>
         <v>500000000</v>
       </c>
       <c r="K24" s="7" t="n">
@@ -3199,7 +3197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
@@ -3228,7 +3226,7 @@
         <v>50000</v>
       </c>
       <c r="J25" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G25*SequencingForm!$I25</f>
         <v>241200000</v>
       </c>
       <c r="K25" s="7" t="n">
@@ -3287,7 +3285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
@@ -3314,7 +3312,7 @@
         <v>10000</v>
       </c>
       <c r="J26" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G26*SequencingForm!$I26</f>
         <v>100000000</v>
       </c>
       <c r="K26" s="7" t="n">
@@ -3373,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
@@ -3400,7 +3398,7 @@
         <v>50000</v>
       </c>
       <c r="J27" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G27*SequencingForm!$I27</f>
         <v>500000000</v>
       </c>
       <c r="K27" s="7" t="n">
@@ -3459,7 +3457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
@@ -3486,7 +3484,7 @@
         <v>50000</v>
       </c>
       <c r="J28" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G28*SequencingForm!$I28</f>
         <v>500000000</v>
       </c>
       <c r="K28" s="7" t="n">
@@ -3545,7 +3543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
@@ -3572,7 +3570,7 @@
         <v>50000</v>
       </c>
       <c r="J29" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G29*SequencingForm!$I29</f>
         <v>500000000</v>
       </c>
       <c r="K29" s="7" t="n">
@@ -3631,7 +3629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
@@ -3658,7 +3656,7 @@
         <v>50000</v>
       </c>
       <c r="J30" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G30*SequencingForm!$I30</f>
         <v>500000000</v>
       </c>
       <c r="K30" s="7" t="n">
@@ -3717,7 +3715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
@@ -3744,7 +3742,7 @@
         <v>50001</v>
       </c>
       <c r="J31" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G31*SequencingForm!$I31</f>
         <v>500010000</v>
       </c>
       <c r="K31" s="7" t="n">
@@ -3803,7 +3801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
@@ -3832,7 +3830,7 @@
         <v>90000000</v>
       </c>
       <c r="J32" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G32*SequencingForm!$I32</f>
         <v>900000000000</v>
       </c>
       <c r="K32" s="7" t="n">
@@ -3893,7 +3891,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
@@ -3922,7 +3920,7 @@
         <v>90000000</v>
       </c>
       <c r="J33" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G33*SequencingForm!$I33</f>
         <v>900000000000</v>
       </c>
       <c r="K33" s="7" t="n">
@@ -3983,7 +3981,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
@@ -4012,7 +4010,7 @@
         <v>90000000</v>
       </c>
       <c r="J34" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G34*SequencingForm!$I34</f>
         <v>900000000000</v>
       </c>
       <c r="K34" s="7" t="n">
@@ -4073,7 +4071,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
@@ -4102,7 +4100,7 @@
         <v>75000000</v>
       </c>
       <c r="J35" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G35*SequencingForm!$I35</f>
         <v>750000000000</v>
       </c>
       <c r="K35" s="7" t="n">
@@ -4163,7 +4161,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
@@ -4192,7 +4190,7 @@
         <v>75000000</v>
       </c>
       <c r="J36" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G36*SequencingForm!$I36</f>
         <v>750000000000</v>
       </c>
       <c r="K36" s="7" t="n">
@@ -4253,7 +4251,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
@@ -4282,7 +4280,7 @@
         <v>75000000</v>
       </c>
       <c r="J37" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G37*SequencingForm!$I37</f>
         <v>750000000000</v>
       </c>
       <c r="K37" s="7" t="n">
@@ -4343,7 +4341,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
@@ -4372,7 +4370,7 @@
         <v>75000000</v>
       </c>
       <c r="J38" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G38*SequencingForm!$I38</f>
         <v>750000000000</v>
       </c>
       <c r="K38" s="7" t="n">
@@ -4433,7 +4431,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
@@ -4460,7 +4458,7 @@
         <v>70000</v>
       </c>
       <c r="J39" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G39*SequencingForm!$I39</f>
         <v>700000000</v>
       </c>
       <c r="K39" s="7" t="n">
@@ -4521,7 +4519,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
@@ -4548,7 +4546,7 @@
         <v>70000</v>
       </c>
       <c r="J40" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G40*SequencingForm!$I40</f>
         <v>700000000</v>
       </c>
       <c r="K40" s="7" t="n">
@@ -4609,7 +4607,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
@@ -4636,7 +4634,7 @@
         <v>70000</v>
       </c>
       <c r="J41" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G41*SequencingForm!$I41</f>
         <v>700000000</v>
       </c>
       <c r="K41" s="7" t="n">
@@ -4697,7 +4695,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
@@ -4724,7 +4722,7 @@
         <v>70000</v>
       </c>
       <c r="J42" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G42*SequencingForm!$I42</f>
         <v>700000000</v>
       </c>
       <c r="K42" s="7" t="n">
@@ -4785,7 +4783,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
@@ -4812,7 +4810,7 @@
         <v>5000</v>
       </c>
       <c r="J43" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G43*SequencingForm!$I43</f>
         <v>50000000</v>
       </c>
       <c r="K43" s="7" t="n">
@@ -4873,7 +4871,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
@@ -4900,7 +4898,7 @@
         <v>5000</v>
       </c>
       <c r="J44" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G44*SequencingForm!$I44</f>
         <v>50000000</v>
       </c>
       <c r="K44" s="7" t="n">
@@ -4961,7 +4959,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
@@ -4988,7 +4986,7 @@
         <v>5000</v>
       </c>
       <c r="J45" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G45*SequencingForm!$I45</f>
         <v>50000000</v>
       </c>
       <c r="K45" s="7" t="n">
@@ -5049,7 +5047,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
@@ -5076,7 +5074,7 @@
         <v>5000</v>
       </c>
       <c r="J46" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G46*SequencingForm!$I46</f>
         <v>50000000</v>
       </c>
       <c r="K46" s="7" t="n">
@@ -5137,7 +5135,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>46</v>
       </c>
@@ -5166,7 +5164,7 @@
         <v>50000</v>
       </c>
       <c r="J47" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G47*SequencingForm!$I47</f>
         <v>896250000</v>
       </c>
       <c r="K47" s="7" t="n">
@@ -5227,7 +5225,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>47</v>
       </c>
@@ -5256,7 +5254,7 @@
         <v>30000</v>
       </c>
       <c r="J48" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G48*SequencingForm!$I48</f>
         <v>260220000</v>
       </c>
       <c r="K48" s="7" t="n">
@@ -5317,7 +5315,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>48</v>
       </c>
@@ -5344,7 +5342,7 @@
         <v>50000</v>
       </c>
       <c r="J49" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G49*SequencingForm!$I49</f>
         <v>435700000</v>
       </c>
       <c r="K49" s="7" t="n">
@@ -5405,7 +5403,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
@@ -5432,7 +5430,7 @@
         <v>70000</v>
       </c>
       <c r="J50" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G50*SequencingForm!$I50</f>
         <v>700000000</v>
       </c>
       <c r="K50" s="7" t="n">
@@ -5493,7 +5491,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
@@ -5520,7 +5518,7 @@
         <v>70000</v>
       </c>
       <c r="J51" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G51*SequencingForm!$I51</f>
         <v>700000000</v>
       </c>
       <c r="K51" s="7" t="n">
@@ -5581,7 +5579,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>51</v>
       </c>
@@ -5610,7 +5608,7 @@
         <v>42800</v>
       </c>
       <c r="J52" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G52*SequencingForm!$I52</f>
         <v>428000000</v>
       </c>
       <c r="K52" s="7" t="n">
@@ -5671,7 +5669,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>52</v>
       </c>
@@ -5700,7 +5698,7 @@
         <v>42800</v>
       </c>
       <c r="J53" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G53*SequencingForm!$I53</f>
         <v>428000000</v>
       </c>
       <c r="K53" s="7" t="n">
@@ -5761,7 +5759,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>53</v>
       </c>
@@ -5790,7 +5788,7 @@
         <v>42800</v>
       </c>
       <c r="J54" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G54*SequencingForm!$I54</f>
         <v>428000000</v>
       </c>
       <c r="K54" s="7" t="n">
@@ -5851,7 +5849,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>54</v>
       </c>
@@ -5880,7 +5878,7 @@
         <v>42800</v>
       </c>
       <c r="J55" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G55*SequencingForm!$I55</f>
         <v>428000000</v>
       </c>
       <c r="K55" s="7" t="n">
@@ -5941,7 +5939,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>55</v>
       </c>
@@ -5970,7 +5968,7 @@
         <v>42800</v>
       </c>
       <c r="J56" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G56*SequencingForm!$I56</f>
         <v>428000000</v>
       </c>
       <c r="K56" s="7" t="n">
@@ -6031,7 +6029,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>56</v>
       </c>
@@ -6060,7 +6058,7 @@
         <v>42800</v>
       </c>
       <c r="J57" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G57*SequencingForm!$I57</f>
         <v>428000000</v>
       </c>
       <c r="K57" s="7" t="n">
@@ -6121,7 +6119,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>57</v>
       </c>
@@ -6150,7 +6148,7 @@
         <v>42800</v>
       </c>
       <c r="J58" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G58*SequencingForm!$I58</f>
         <v>428000000</v>
       </c>
       <c r="K58" s="7" t="n">
@@ -6211,7 +6209,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>58</v>
       </c>
@@ -6238,7 +6236,7 @@
         <v>28640</v>
       </c>
       <c r="J59" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G59*SequencingForm!$I59</f>
         <v>240862400</v>
       </c>
       <c r="K59" s="7" t="n">
@@ -6297,7 +6295,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>59</v>
       </c>
@@ -6324,7 +6322,7 @@
         <v>35280</v>
       </c>
       <c r="J60" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G60*SequencingForm!$I60</f>
         <v>298609920</v>
       </c>
       <c r="K60" s="7" t="n">
@@ -6383,7 +6381,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>60</v>
       </c>
@@ -6412,7 +6410,7 @@
         <v>43457</v>
       </c>
       <c r="J61" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G61*SequencingForm!$I61</f>
         <v>276690719</v>
       </c>
       <c r="K61" s="7" t="n">
@@ -6471,7 +6469,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>61</v>
       </c>
@@ -6500,7 +6498,7 @@
         <v>8371</v>
       </c>
       <c r="J62" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G62*SequencingForm!$I62</f>
         <v>32395770</v>
       </c>
       <c r="K62" s="7" t="n">
@@ -6559,7 +6557,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>62</v>
       </c>
@@ -6588,7 +6586,7 @@
         <v>58583</v>
       </c>
       <c r="J63" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G63*SequencingForm!$I63</f>
         <v>679562800</v>
       </c>
       <c r="K63" s="7" t="n">
@@ -6647,7 +6645,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>63</v>
       </c>
@@ -6676,7 +6674,7 @@
         <v>65607</v>
       </c>
       <c r="J64" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G64*SequencingForm!$I64</f>
         <v>609292209</v>
       </c>
       <c r="K64" s="7" t="n">
@@ -6735,7 +6733,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>64</v>
       </c>
@@ -6764,7 +6762,7 @@
         <v>65351</v>
       </c>
       <c r="J65" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G65*SequencingForm!$I65</f>
         <v>936610532</v>
       </c>
       <c r="K65" s="7" t="n">
@@ -6823,7 +6821,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>65</v>
       </c>
@@ -6852,7 +6850,7 @@
         <v>36812</v>
       </c>
       <c r="J66" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G66*SequencingForm!$I66</f>
         <v>533442692</v>
       </c>
       <c r="K66" s="7" t="n">
@@ -6911,7 +6909,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>66</v>
       </c>
@@ -6940,7 +6938,7 @@
         <v>58060</v>
       </c>
       <c r="J67" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G67*SequencingForm!$I67</f>
         <v>451068140</v>
       </c>
       <c r="K67" s="7" t="n">
@@ -6999,7 +6997,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>67</v>
       </c>
@@ -7026,7 +7024,7 @@
         <v>70000</v>
       </c>
       <c r="J68" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G68*SequencingForm!$I68</f>
         <v>700000000</v>
       </c>
       <c r="K68" s="7" t="n">
@@ -7085,7 +7083,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>68</v>
       </c>
@@ -7112,7 +7110,7 @@
         <v>70000</v>
       </c>
       <c r="J69" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G69*SequencingForm!$I69</f>
         <v>700000000</v>
       </c>
       <c r="K69" s="7" t="n">
@@ -7171,7 +7169,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>69</v>
       </c>
@@ -7198,7 +7196,7 @@
         <v>70000</v>
       </c>
       <c r="J70" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G70*SequencingForm!$I70</f>
         <v>700000000</v>
       </c>
       <c r="K70" s="7" t="n">
@@ -7257,7 +7255,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>70</v>
       </c>
@@ -7281,7 +7279,7 @@
         <v>50000</v>
       </c>
       <c r="J71" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G71*SequencingForm!$I71</f>
         <v>500000000</v>
       </c>
       <c r="K71" s="7" t="n">
@@ -7310,7 +7308,7 @@
       <c r="AB71" s="1"/>
       <c r="AC71" s="1"/>
     </row>
-    <row r="72" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>71</v>
       </c>
@@ -7334,7 +7332,7 @@
         <v>50000</v>
       </c>
       <c r="J72" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G72*SequencingForm!$I72</f>
         <v>500000000</v>
       </c>
       <c r="K72" s="7" t="n">
@@ -7363,7 +7361,7 @@
       <c r="AB72" s="1"/>
       <c r="AC72" s="1"/>
     </row>
-    <row r="73" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>72</v>
       </c>
@@ -7387,7 +7385,7 @@
         <v>50000</v>
       </c>
       <c r="J73" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G73*SequencingForm!$I73</f>
         <v>500000000</v>
       </c>
       <c r="K73" s="7" t="n">
@@ -7416,7 +7414,7 @@
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
     </row>
-    <row r="74" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>73</v>
       </c>
@@ -7429,7 +7427,7 @@
         <v>50000</v>
       </c>
       <c r="J74" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G74*SequencingForm!$I74</f>
         <v>500000000</v>
       </c>
       <c r="K74" s="7" t="n">
@@ -7458,7 +7456,7 @@
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
     </row>
-    <row r="75" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>74</v>
       </c>
@@ -7471,7 +7469,7 @@
         <v>50000</v>
       </c>
       <c r="J75" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G75*SequencingForm!$I75</f>
         <v>500000000</v>
       </c>
       <c r="K75" s="7" t="n">
@@ -7500,7 +7498,7 @@
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
     </row>
-    <row r="76" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>75</v>
       </c>
@@ -7524,7 +7522,7 @@
         <v>25000</v>
       </c>
       <c r="J76" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G76*SequencingForm!$I76</f>
         <v>162800000</v>
       </c>
       <c r="K76" s="7" t="n">
@@ -7561,7 +7559,7 @@
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
     </row>
-    <row r="77" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>76</v>
       </c>
@@ -7587,7 +7585,7 @@
         <v>35000</v>
       </c>
       <c r="J77" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G77*SequencingForm!$I77</f>
         <v>444850000</v>
       </c>
       <c r="K77" s="7" t="n">
@@ -7624,7 +7622,7 @@
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
     </row>
-    <row r="78" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>77</v>
       </c>
@@ -7650,7 +7648,7 @@
         <v>25000</v>
       </c>
       <c r="J78" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G78*SequencingForm!$I78</f>
         <v>247150000</v>
       </c>
       <c r="K78" s="7" t="n">
@@ -7687,7 +7685,7 @@
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
     </row>
-    <row r="79" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>78</v>
       </c>
@@ -7711,7 +7709,7 @@
         <v>70000</v>
       </c>
       <c r="J79" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G79*SequencingForm!$I79</f>
         <v>700000000</v>
       </c>
       <c r="K79" s="7" t="n">
@@ -7740,7 +7738,7 @@
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
     </row>
-    <row r="80" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>79</v>
       </c>
@@ -7764,7 +7762,7 @@
         <v>70000</v>
       </c>
       <c r="J80" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G80*SequencingForm!$I80</f>
         <v>700000000</v>
       </c>
       <c r="K80" s="7" t="n">
@@ -7793,7 +7791,7 @@
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
     </row>
-    <row r="81" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>80</v>
       </c>
@@ -7817,7 +7815,7 @@
         <v>70000</v>
       </c>
       <c r="J81" s="6" t="n">
-        <f aca="false">Table713252612235173[[#This Row],[Cell Numbers]]*Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <f aca="false">SequencingForm!$G81*SequencingForm!$I81</f>
         <v>700000000</v>
       </c>
       <c r="K81" s="7" t="n">
@@ -7846,7 +7844,7 @@
       <c r="AB81" s="1"/>
       <c r="AC81" s="1"/>
     </row>
-    <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H82" s="5"/>
       <c r="I82" s="6"/>
       <c r="K82" s="6"/>
@@ -7866,7 +7864,7 @@
       <c r="AH82" s="8"/>
       <c r="AI82" s="8"/>
     </row>
-    <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J83" s="10"/>
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>

--- a/ExperimentSummaryFIles/Form 2_Sequencing Samples.xlsx
+++ b/ExperimentSummaryFIles/Form 2_Sequencing Samples.xlsx
@@ -936,6 +936,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -956,6 +957,7 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1066,12 +1068,7 @@
   <autoFilter ref="A1:AC81">
     <filterColumn colId="25">
       <customFilters and="true">
-        <customFilter operator="equal" val="20211105_UTA_L3_L4_cbcl"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <customFilters and="true">
-        <customFilter operator="equal" val="76638-v5_mus-fat_musi"/>
+        <customFilter operator="equal" val="20210716_UTA_NovaSeq_L1_L2_cbcl"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
@@ -1117,11 +1114,11 @@
   <dimension ref="A1:AI83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="K39" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P66" activeCellId="0" sqref="P66:P70"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
+      <selection pane="bottomRight" activeCell="N43" activeCellId="0" sqref="N43:N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4431,7 +4428,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
@@ -4519,7 +4516,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
@@ -4607,7 +4604,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
@@ -4695,7 +4692,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
@@ -4783,7 +4780,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
@@ -4871,7 +4868,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
@@ -4959,7 +4956,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
@@ -5047,7 +5044,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
@@ -5135,7 +5132,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>46</v>
       </c>
@@ -5225,7 +5222,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>47</v>
       </c>
@@ -5315,7 +5312,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>48</v>
       </c>
@@ -5403,7 +5400,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
@@ -5491,7 +5488,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
@@ -6821,7 +6818,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>65</v>
       </c>
@@ -6909,7 +6906,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>66</v>
       </c>
@@ -6997,7 +6994,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>67</v>
       </c>
@@ -7083,7 +7080,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>68</v>
       </c>
@@ -7169,7 +7166,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>69</v>
       </c>

--- a/ExperimentSummaryFIles/Form 2_Sequencing Samples.xlsx
+++ b/ExperimentSummaryFIles/Form 2_Sequencing Samples.xlsx
@@ -1068,7 +1068,7 @@
   <autoFilter ref="A1:AC81">
     <filterColumn colId="25">
       <customFilters and="true">
-        <customFilter operator="equal" val="20210716_UTA_NovaSeq_L1_L2_cbcl"/>
+        <customFilter operator="equal" val="20211105_UTA_L3_L4_cbcl"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
@@ -1114,11 +1114,11 @@
   <dimension ref="A1:AI83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="K39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="M39" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
-      <selection pane="bottomRight" activeCell="N43" activeCellId="0" sqref="N43:N46"/>
+      <selection pane="bottomRight" activeCell="D59" activeCellId="0" sqref="D59:D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4428,7 +4428,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>46</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>47</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>48</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>58</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>59</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>60</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>61</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>62</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>63</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>64</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>65</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>66</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>67</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>68</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>69</v>
       </c>
